--- a/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Desktop_Analysis_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN170/AN170_TestScript_Desktop_Analysis_Validation_UR.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <x:si>
     <x:t>AddCariesROI</x:t>
   </x:si>
@@ -372,7 +372,7 @@
     <x:t>@UR027-2</x:t>
   </x:si>
   <x:si>
-    <x:t>I dismiss/request the new features are no longer displayed</x:t>
+    <x:t>I dismiss the new features dispay</x:t>
   </x:si>
   <x:si>
     <x:t>I restart AssistDent</x:t>
@@ -393,7 +393,10 @@
     <x:t>I have started AssistDent</x:t>
   </x:si>
   <x:si>
-    <x:t>I access the new features</x:t>
+    <x:t>I access the see all whats new features</x:t>
+  </x:si>
+  <x:si>
+    <x:t>all the features are displayed</x:t>
   </x:si>
   <x:si>
     <x:t>ShowProgress</x:t>
@@ -868,7 +871,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -923,12 +926,12 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="B12" s="4" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
       <x:c r="B13" s="4" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2188,7 +2191,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2213,7 +2216,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2221,17 +2224,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>120</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2239,7 +2242,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>121</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2248,7 +2251,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -2256,7 +2259,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2281,7 +2284,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2289,17 +2292,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>125</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2307,7 +2310,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2332,7 +2335,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>128</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -2340,12 +2343,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -2353,7 +2356,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -2378,7 +2381,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -2386,7 +2389,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2394,7 +2397,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
